--- a/speciality_indexing.xlsx
+++ b/speciality_indexing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chila\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4E88C9-03B1-4CA0-BB8A-9875EAA3F4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3E3A93-1D44-4BA0-9C9D-A6B81E7EDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22590" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3DD429B8-453B-DE48-AF2D-CC3B234C8BE5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Specialty" sheetId="14" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Specialty!$A$1:$B$1793</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Specialty!$A$1:$B$1794</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="1857">
   <si>
     <t>abcess of anal and rectal regions</t>
   </si>
@@ -5607,6 +5607,9 @@
   </si>
   <si>
     <t>speciality</t>
+  </si>
+  <si>
+    <t>hypertension &amp; hypertensive disease</t>
   </si>
 </sst>
 </file>
@@ -6032,7 +6035,7 @@
   <dimension ref="A1:B1794"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.58203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -20389,10 +20392,15 @@
       </c>
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1794" s="1"/>
+      <c r="A1794" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1793" xr:uid="{9912BD2B-937C-674B-BB3F-5A5202F983D3}"/>
+  <autoFilter ref="A1:B1794" xr:uid="{9912BD2B-937C-674B-BB3F-5A5202F983D3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20409,6 +20417,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A4E22144DB2368428021B8EF5362D665" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a20252692610c270ee540189e41fb60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74d60980-e157-4ed5-9865-910e4f8fdea7" xmlns:ns3="f524699b-2668-4688-95c6-da7d08749d9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd6b7932b4e42ad105e26c671c9ed285" ns2:_="" ns3:_="">
     <xsd:import namespace="74d60980-e157-4ed5-9865-910e4f8fdea7"/>
@@ -20603,15 +20620,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1CADB7-8AD5-4F0B-AC34-101B5E15C402}">
   <ds:schemaRefs>
@@ -20630,6 +20638,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57EF559-B6BC-457F-BC0B-4C42242E2924}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D98B0A4F-EFB8-4B99-8C2E-ADC42FFC4654}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20648,14 +20664,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57EF559-B6BC-457F-BC0B-4C42242E2924}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0c4b95b-b891-4b6e-9d9d-6c63eea44338}" enabled="0" method="" siteId="{e0c4b95b-b891-4b6e-9d9d-6c63eea44338}" removed="1"/>

--- a/speciality_indexing.xlsx
+++ b/speciality_indexing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chila\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3E3A93-1D44-4BA0-9C9D-A6B81E7EDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F74B5C-4011-4BCF-95AD-99F78FDE1268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22590" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3DD429B8-453B-DE48-AF2D-CC3B234C8BE5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Specialty" sheetId="14" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Specialty!$A$1:$B$1794</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Specialty!$A$1:$B$1796</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="1859">
   <si>
     <t>abcess of anal and rectal regions</t>
   </si>
@@ -5610,6 +5610,12 @@
   </si>
   <si>
     <t>hypertension &amp; hypertensive disease</t>
+  </si>
+  <si>
+    <t>dermatitis &amp; eczema</t>
+  </si>
+  <si>
+    <t>acute upper respiratory infection &amp; common cold</t>
   </si>
 </sst>
 </file>
@@ -6032,10 +6038,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B1794"/>
+  <dimension ref="A1:B1796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.58203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -20399,8 +20405,24 @@
         <v>31</v>
       </c>
     </row>
+    <row r="1795" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1795" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1796" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1794" xr:uid="{9912BD2B-937C-674B-BB3F-5A5202F983D3}"/>
+  <autoFilter ref="A1:B1796" xr:uid="{9912BD2B-937C-674B-BB3F-5A5202F983D3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20417,15 +20439,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A4E22144DB2368428021B8EF5362D665" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a20252692610c270ee540189e41fb60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74d60980-e157-4ed5-9865-910e4f8fdea7" xmlns:ns3="f524699b-2668-4688-95c6-da7d08749d9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd6b7932b4e42ad105e26c671c9ed285" ns2:_="" ns3:_="">
     <xsd:import namespace="74d60980-e157-4ed5-9865-910e4f8fdea7"/>
@@ -20620,6 +20633,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1CADB7-8AD5-4F0B-AC34-101B5E15C402}">
   <ds:schemaRefs>
@@ -20638,14 +20660,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57EF559-B6BC-457F-BC0B-4C42242E2924}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D98B0A4F-EFB8-4B99-8C2E-ADC42FFC4654}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20664,6 +20678,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57EF559-B6BC-457F-BC0B-4C42242E2924}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0c4b95b-b891-4b6e-9d9d-6c63eea44338}" enabled="0" method="" siteId="{e0c4b95b-b891-4b6e-9d9d-6c63eea44338}" removed="1"/>

--- a/speciality_indexing.xlsx
+++ b/speciality_indexing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chila\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F74B5C-4011-4BCF-95AD-99F78FDE1268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD547B3-54EE-4D1D-8422-A0A23B4C15F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22590" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{3DD429B8-453B-DE48-AF2D-CC3B234C8BE5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="1860">
   <si>
     <t>abcess of anal and rectal regions</t>
   </si>
@@ -5616,6 +5616,9 @@
   </si>
   <si>
     <t>acute upper respiratory infection &amp; common cold</t>
+  </si>
+  <si>
+    <t>oth diseases of conjunctiva due to viruses and chlamydiae</t>
   </si>
 </sst>
 </file>
@@ -6038,10 +6041,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:B1796"/>
+  <dimension ref="A1:B1797"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A1764" workbookViewId="0">
+      <selection activeCell="C1777" sqref="C1777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.58203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -20421,6 +20424,14 @@
         <v>122</v>
       </c>
     </row>
+    <row r="1797" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1797" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1796" xr:uid="{9912BD2B-937C-674B-BB3F-5A5202F983D3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20428,17 +20439,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74d60980-e157-4ed5-9865-910e4f8fdea7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f524699b-2668-4688-95c6-da7d08749d9e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A4E22144DB2368428021B8EF5362D665" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a20252692610c270ee540189e41fb60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74d60980-e157-4ed5-9865-910e4f8fdea7" xmlns:ns3="f524699b-2668-4688-95c6-da7d08749d9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd6b7932b4e42ad105e26c671c9ed285" ns2:_="" ns3:_="">
     <xsd:import namespace="74d60980-e157-4ed5-9865-910e4f8fdea7"/>
@@ -20633,6 +20633,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="74d60980-e157-4ed5-9865-910e4f8fdea7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f524699b-2668-4688-95c6-da7d08749d9e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20643,23 +20654,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1CADB7-8AD5-4F0B-AC34-101B5E15C402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="74d60980-e157-4ed5-9865-910e4f8fdea7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f524699b-2668-4688-95c6-da7d08749d9e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D98B0A4F-EFB8-4B99-8C2E-ADC42FFC4654}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20678,6 +20672,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1CADB7-8AD5-4F0B-AC34-101B5E15C402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="74d60980-e157-4ed5-9865-910e4f8fdea7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f524699b-2668-4688-95c6-da7d08749d9e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57EF559-B6BC-457F-BC0B-4C42242E2924}">
   <ds:schemaRefs>
